--- a/mosip_master/xlsx/daysofweek_list.xlsx
+++ b/mosip_master/xlsx/daysofweek_list.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A513C33-8793-45B8-8F3A-D789DAF30086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,206 +25,220 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="63">
-  <si>
-    <t xml:space="preserve">lang_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day_seq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_global_working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الشمس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الإثنين</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الثلاثاء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تزوج</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">خميس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الجمعة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جلس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಸೂರ್ಯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಸೋಮ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಮಂಗಳ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಬುಧ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಗುರು</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಶುಕ್ರ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಶನಿ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">रवि</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सोमवार</t>
-  </si>
-  <si>
-    <t xml:space="preserve">मंगल</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बुध</t>
-  </si>
-  <si>
-    <t xml:space="preserve">इकट्ठा करना</t>
-  </si>
-  <si>
-    <t xml:space="preserve">शुक्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बैठा</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">சூரியன்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">திங்கள்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">செவ்வாய்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">திருமணம் செய்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">திரட்டுதல்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">வெள்ளி</t>
-  </si>
-  <si>
-    <t xml:space="preserve">சனிக்கிழமை</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="69">
+  <si>
+    <t>lang_code</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>day_seq</t>
+  </si>
+  <si>
+    <t>is_global_working</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>SUN</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>MON</t>
+  </si>
+  <si>
+    <t>TUE</t>
+  </si>
+  <si>
+    <t>WED</t>
+  </si>
+  <si>
+    <t>THU</t>
+  </si>
+  <si>
+    <t>FRI</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>DIM</t>
+  </si>
+  <si>
+    <t>LUN</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MER</t>
+  </si>
+  <si>
+    <t>JEU</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>ara</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>الشمس</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>الإثنين</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>الثلاثاء</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>تزوج</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>خميس</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>الجمعة</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>جلس</t>
+  </si>
+  <si>
+    <t>kan</t>
+  </si>
+  <si>
+    <t>ಸೂರ್ಯ</t>
+  </si>
+  <si>
+    <t>ಸೋಮ</t>
+  </si>
+  <si>
+    <t>ಮಂಗಳ</t>
+  </si>
+  <si>
+    <t>ಬುಧ</t>
+  </si>
+  <si>
+    <t>ಗುರು</t>
+  </si>
+  <si>
+    <t>ಶುಕ್ರ</t>
+  </si>
+  <si>
+    <t>ಶನಿ</t>
+  </si>
+  <si>
+    <t>hin</t>
+  </si>
+  <si>
+    <t>रवि</t>
+  </si>
+  <si>
+    <t>सोमवार</t>
+  </si>
+  <si>
+    <t>मंगल</t>
+  </si>
+  <si>
+    <t>बुध</t>
+  </si>
+  <si>
+    <t>इकट्ठा करना</t>
+  </si>
+  <si>
+    <t>शुक्र</t>
+  </si>
+  <si>
+    <t>बैठा</t>
+  </si>
+  <si>
+    <t>tam</t>
+  </si>
+  <si>
+    <t>சூரியன்</t>
+  </si>
+  <si>
+    <t>திங்கள்</t>
+  </si>
+  <si>
+    <t>செவ்வாய்</t>
+  </si>
+  <si>
+    <t>திருமணம் செய்</t>
+  </si>
+  <si>
+    <t>திரட்டுதல்</t>
+  </si>
+  <si>
+    <t>வெள்ளி</t>
+  </si>
+  <si>
+    <t>சனிக்கிழமை</t>
+  </si>
+  <si>
+    <t>spa</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>CASARSE</t>
+  </si>
+  <si>
+    <t>JUE</t>
+  </si>
+  <si>
+    <t>VIE</t>
+  </si>
+  <si>
+    <t>SE SENTÓ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -228,25 +247,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -259,101 +268,368 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="8.43"/>
+    <col min="2" max="2" width="8.453125" style="1"/>
+    <col min="5" max="6" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -373,17 +649,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>101</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -393,17 +669,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>102</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -413,17 +689,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>103</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -433,17 +709,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>104</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -453,17 +729,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>105</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -473,17 +749,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>106</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -493,57 +769,57 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>107</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>101</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>102</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -553,17 +829,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>103</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -573,17 +849,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>104</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -593,17 +869,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>105</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -613,17 +889,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>106</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14">
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -633,17 +909,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>107</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15">
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -653,17 +929,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -673,17 +949,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -693,17 +969,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -713,17 +989,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19">
         <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -733,17 +1009,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20">
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -753,17 +1029,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21">
         <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -773,17 +1049,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22">
         <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -793,17 +1069,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="1">
         <v>101</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -813,17 +1089,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="1">
         <v>102</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -833,17 +1109,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="1">
         <v>103</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -853,17 +1129,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="1">
         <v>104</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26">
         <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -873,17 +1149,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="1">
         <v>105</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27">
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -893,17 +1169,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="1">
         <v>106</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28">
         <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -913,37 +1189,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="1">
         <v>107</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29">
         <v>7</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="1">
         <v>101</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -953,17 +1229,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="1">
         <v>102</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -973,17 +1249,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="1">
         <v>103</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -993,17 +1269,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="1">
         <v>104</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -1013,17 +1289,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="1">
         <v>105</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34">
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -1033,17 +1309,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="1">
         <v>106</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35">
         <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -1053,37 +1329,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="1">
         <v>107</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36">
         <v>7</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="1">
         <v>101</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -1093,17 +1369,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="1">
         <v>102</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38">
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -1113,17 +1389,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="1">
         <v>103</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -1133,17 +1409,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="1">
         <v>104</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="D40">
         <v>4</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -1153,17 +1429,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="1">
         <v>105</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="D41">
         <v>5</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -1173,17 +1449,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="1">
         <v>106</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="4" t="n">
+      <c r="D42">
         <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -1193,33 +1469,169 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="4" t="n">
+      <c r="D43">
         <v>7</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>